--- a/LeadOne.xlsx
+++ b/LeadOne.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aneesha\Documents\GitHub\PavithraProjectLightning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F254332-846E-4D2E-BA6B-82A5926429D4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D3835C-5427-4BBB-A34A-D82F0BF6CBAB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="510" windowWidth="15375" windowHeight="7890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="15375" windowHeight="7890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test-Cases" sheetId="2" r:id="rId1"/>
